--- a/設計書/全体設計書.xlsx
+++ b/設計書/全体設計書.xlsx
@@ -147,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -188,43 +188,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -235,6 +198,57 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -243,62 +257,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,15 +310,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +319,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,13 +347,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,163 +521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,6 +550,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -567,10 +587,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -591,15 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -614,24 +632,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,22 +640,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -664,121 +664,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -792,7 +792,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1135,22 +1135,10 @@
     <col min="16384" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.75" spans="1:3">
+    <row r="1" ht="39.75" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="30" spans="1:3">
       <c r="A4" s="4" t="s">
